--- a/biology/Zoologie/Colibri_de_Delphine/Colibri_de_Delphine.xlsx
+++ b/biology/Zoologie/Colibri_de_Delphine/Colibri_de_Delphine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colibri delphinae
 Le Colibri de Delphine (Colibri delphinae) est une espèce d’oiseaux de la famille des Trochilidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend sur l'Amérique centrale la moitié nord de la cordillère des Andes, Trinité-et-Tobago et le plateau des Guyanes.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente les forêts tropicales et subtropicales humides de montagne, les sites d'anciennes forêts fortement dégradées, les clairières et les lisières.
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce mesure 11 à 12 cm pour une masse de 6,8 g pour le mâle et 6,1 g pour la femelle. Elle possède un plumage plutôt brunâtre avec des joues violettes, une gorge vert vif, un croupion cannelle, tout comme l'extrémité de la queue surmonté d'une bande sombre, et un bec droit et assez court. Le colibri bat des ailes en forme de huit, cela sert à voler en-avant, en-arrière, en haut  ou en bas et de côté.
 </t>
@@ -605,7 +623,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau consomme le nectar de diverses fleurs.
 </t>
